--- a/pred_ohlcv/54_21/2020-01-24 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 VALOR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>20791.89594610638</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>20761.40194610638</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>22294.50194610637</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>22177.09964610637</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -912,7 +912,7 @@
         <v>27185.01414610637</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>28069.14654610637</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>37771.54064610637</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>37249.01484610637</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>38360.73564610637</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>30360.73564610637</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>29480.50324610637</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>29366.36954610637</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>30643.72534610637</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>30779.94434610637</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>29928.44434610637</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>35486.12724610637</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>70098.00754610638</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>70098.00754610638</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>70098.00754610638</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>66952.66294610639</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>66952.66294610639</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>68103.57914610639</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>68103.57914610639</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>65975.9340461064</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>90216.4197461064</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>87145.9610461064</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>87258.57454610641</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>83665.33684610641</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>86465.33684610641</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>86465.33684610641</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>86204.6654461064</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>86230.6654461064</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>85834.3023461064</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>85846.6874461064</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>73565.7904461064</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>89613.6975461064</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>89704.48414610641</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>89708.01914610641</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>89489.3131461064</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>89440.3131461064</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>89407.19104610641</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>89403.19104610641</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>89405.19104610641</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>89402.19104610641</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>89402.19104610641</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>89404.19104610641</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>89402.19104610641</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>93670.19104610641</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>86399.19104610641</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>86510.19104610641</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>93440.93854610641</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>98542.93854610641</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>98540.93854610641</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>98540.93854610641</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>98538.93854610641</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>94469.93854610641</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>94469.93854610641</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-77500.2305295117</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-78689.5562295117</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-78689.5562295117</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-78539.65272633218</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-78539.65272633218</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-186012.3523263322</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-164090.3254263322</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-191468.3598263322</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-227794.9324263322</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 VALOR ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>20791.89594610638</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>20761.40194610638</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>22294.50194610637</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>22177.09964610637</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -912,7 +912,7 @@
         <v>27185.01414610637</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>28069.14654610637</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>37771.54064610637</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>37249.01484610637</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>38360.73564610637</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>30360.73564610637</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>29480.50324610637</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>29366.36954610637</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>30643.72534610637</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>30779.94434610637</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>29928.44434610637</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>35486.12724610637</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>70098.00754610638</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>70098.00754610638</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>70098.00754610638</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>66952.66294610639</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>66952.66294610639</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>68103.57914610639</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>68103.57914610639</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>65975.9340461064</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>90216.4197461064</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>87145.9610461064</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>87258.57454610641</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>83665.33684610641</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>86465.33684610641</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>86465.33684610641</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>86465.33684610641</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>86204.6654461064</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>85834.3023461064</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>85846.6874461064</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>73565.7904461064</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>89613.6975461064</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>89704.48414610641</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>89708.01914610641</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>89489.3131461064</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>89440.3131461064</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>89479.3131461064</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>89403.19104610641</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>89405.19104610641</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>89402.19104610641</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>89402.19104610641</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>89404.19104610641</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>89402.19104610641</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>93670.19104610641</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-77500.2305295117</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-78689.5562295117</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-78689.5562295117</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-78539.65272633218</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-78539.65272633218</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-186012.3523263322</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-164090.3254263322</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-191631.8044263322</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-191468.3598263322</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-225405.7283263322</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
